--- a/tool/recipes.xlsx
+++ b/tool/recipes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\Android\Projects\LightRecipeApp\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD7F4E5-5553-45EA-955E-6D7DC051B776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D6B840-E071-49DE-A347-127899579D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9615" yWindow="3990" windowWidth="28785" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四季豆肉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>茭白肉丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大葱肉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西葫芦炒肉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平菇肉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>糖醋排骨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +325,15 @@
   <si>
     <t>冒菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季豆炒肉</t>
+  </si>
+  <si>
+    <t>大葱炒肉</t>
+  </si>
+  <si>
+    <t>平菇炒肉</t>
   </si>
 </sst>
 </file>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +688,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -702,40 +699,40 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -746,326 +743,326 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -1076,222 +1073,222 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,32 +1296,32 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
         <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,43 +1329,43 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
         <v>66</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1376,32 +1373,32 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
         <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1409,16 +1406,15 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
-    <sortCondition ref="B2:B67" customList="素菜,凉菜,肉菜,汤菜,甜点,小吃,其它"/>
-    <sortCondition descending="1" ref="A2:A67"/>
+    <sortCondition ref="A3:A67"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
